--- a/medicine/Enfance/Ebba_Hentze/Ebba_Hentze.xlsx
+++ b/medicine/Enfance/Ebba_Hentze/Ebba_Hentze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ebba Hentze, née le 25 septembre 1930 et morte le 20 mai 2015 (à 84 ans)[1], est un auteur de livres pour enfants ainsi qu'une poétesse et traductrice féroïenne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ebba Hentze, née le 25 septembre 1930 et morte le 20 mai 2015 (à 84 ans), est un auteur de livres pour enfants ainsi qu'une poétesse et traductrice féroïenne.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents, Peter Christian Pauli Hentze (1891-1971) et Olivia Sophie Skaalum (1888-1976), sont commerçants. Son enfance se déroule sur l’île de Tvøroyri. Elle passe son baccalauréat en 1950 à Copenhague, puis étudie la linguistique et la littérature à l’université de Copenhague ainsi que dans diverses autres universités scandinaves et étrangères (Paris, Rome et Vienne).
 Elle publie ses premiers poèmes dans la revue Hvedekorn (Grain de blé). Collaboratrice du quotidien danois Politiken, où elle publie des nouvelles, elle travaille comme lectrice pour la maison d’édition Gyldendal et en tant que journaliste indépendante pour les radios danoise, féroïenne et suédoise.
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,7 +588,9 @@
           <t>Poésie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kata, ein seinkaður nekrologur, 1985</t>
         </is>
@@ -602,7 +620,9 @@
           <t>Livres pour enfants, en danois et en féroïen</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Morgenstjernen, 1981
 Antonia midt i det hele, 1982
@@ -645,7 +665,9 @@
           <t>Traductions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ebba Hentze a consacré une part importante de son œuvre à la traduction, tant en danois qu’en féroïen. Elle est l’auteure d’une centaine de traductions en féroïen de l’anglais, de l’allemand, du norvégien et du suédois (notamment un choix de poèmes d’Edith Södergran dans la revue Brá (1991) et une pièce d’August Strindberg). Elle a contribué à faire connaître au Danemark et dans le reste de la Scandinavie la littérature féroïenne contemporaine en traduisant en danois des auteurs tels que Jóanes Nielsen, dont elle a traduit plusieurs romans et recueils de poèmes ainsi qu’une pièce de théâtre, Rói Patursson, Jens Pauli Heinesen, Hanus Andreasen, Oddvør Johansen, Ólavur Michelsen et Jógvan Isaksen.
 </t>
@@ -676,7 +698,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">1984 : prix de littérature jeunesse de la Ville de Tórshavn
 1992 : prix Drassow (prix de la paix) de l’Association des écrivains danois, qui a également récompensé des auteurs tels qu’Inger Christensen, Carsten Jensen, Janina Katz et Jørn Riel.
